--- a/TestDataXls/tutor-enrolling.xlsx
+++ b/TestDataXls/tutor-enrolling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018C4A7-2DE1-45B9-8CED-A97726877F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FAB32D-EE31-40FF-A933-F6D77A86E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="223">
   <si>
     <t>password</t>
   </si>
@@ -691,16 +690,10 @@
     <t>Basketball mvgeaw</t>
   </si>
   <si>
-    <t>615b1f991cc8df1f2c1949d9</t>
-  </si>
-  <si>
-    <t>615c3bd9871b3fbffec008f4</t>
-  </si>
-  <si>
-    <t>tutor39@nkt.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mvg note1 fri</t>
+    <t>tutor53@nkt.com</t>
+  </si>
+  <si>
+    <t>Session class1</t>
   </si>
 </sst>
 </file>
@@ -712,7 +705,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,12 +742,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF212529"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -796,23 +783,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1155,7 +1140,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1179,7 @@
         <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>182</v>
@@ -1267,7 +1252,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,19 +1296,19 @@
       <c r="I1" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>203</v>
       </c>
       <c r="O1" s="7" t="s">
@@ -1335,10 +1320,10 @@
       <c r="Q1" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1488,44 +1473,44 @@
       <c r="H7" s="2">
         <v>8</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>8</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f t="shared" ref="K7:K12" si="0">J7+N7</f>
         <v>10</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="9">
         <f t="shared" ref="L7:L12" si="1">K7*H7</f>
         <v>80</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f t="shared" ref="N7:N12" si="2">J7*O7</f>
         <v>2</v>
       </c>
       <c r="O7" s="7">
         <v>0.25</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" ref="Q7:Q12" si="3">L7*P7</f>
         <v>0.8</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <f t="shared" ref="R7:R12" si="4">P7*L7</f>
         <v>0.8</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <f t="shared" ref="S7:S12" si="5">L7+R7</f>
         <v>80.8</v>
       </c>
-      <c r="T7" s="10"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1547,47 +1532,47 @@
       <c r="G8" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>8</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11">
+      <c r="M8" s="9"/>
+      <c r="N8" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O8" s="7">
         <v>0.25</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="10">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="S8" s="10">
+      <c r="S8" s="9">
         <f t="shared" si="5"/>
         <v>40.4</v>
       </c>
-      <c r="T8" s="10"/>
+      <c r="T8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1609,47 +1594,47 @@
       <c r="G9" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>8</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11">
+      <c r="M9" s="9"/>
+      <c r="N9" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O9" s="7">
         <v>0.25</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="S9" s="10">
+      <c r="S9" s="9">
         <f t="shared" si="5"/>
         <v>40.4</v>
       </c>
-      <c r="T9" s="10"/>
+      <c r="T9" s="9"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1659,59 +1644,59 @@
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="8">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J10" s="8">
+      <c r="I10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J10" s="7">
         <v>4</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11">
+      <c r="M10" s="9"/>
+      <c r="N10" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O10" s="7">
         <v>0.25</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="9">
         <f t="shared" si="5"/>
         <v>15.15</v>
       </c>
-      <c r="T10" s="10"/>
+      <c r="T10" s="9"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1733,47 +1718,47 @@
       <c r="G11" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>8</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11">
+      <c r="M11" s="9"/>
+      <c r="N11" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O11" s="7">
         <v>0.25</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <f t="shared" si="5"/>
         <v>20.2</v>
       </c>
-      <c r="T11" s="10"/>
+      <c r="T11" s="9"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1792,47 +1777,47 @@
       <c r="G12" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>8</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11">
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O12" s="7">
         <v>0.25</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>0.01</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="7">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="10">
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="9">
         <f t="shared" si="5"/>
         <v>40.4</v>
       </c>
-      <c r="T12" s="10"/>
+      <c r="T12" s="9"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
